--- a/aggresive_sample.xlsx
+++ b/aggresive_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianvallejo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD919C8-4E46-B546-86E0-7CA745F619F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA232415-79EE-FF42-97EB-2AB02FB3584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2820" windowWidth="26440" windowHeight="15440" xr2:uid="{264D3CA7-43CB-E44B-AD33-5079823BD05B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>The hon Lady is ignoring the detail of the Bill and carrying on with the absurd scaremongering to which we have been listening for more than a week. A farmer in my constituency who is in receipt of subsidies would have to register as a third party and, according to the terms of clause 27, spend more than £5,000 to be in any way affected by my amendment. If only the farmers in my constituency were so rich that they were scattering £5,000 hither and yon, my own campaign might be the beneficiary of such largesse.</t>
   </si>
@@ -69,6 +69,93 @@
   </si>
   <si>
     <t>aggro_human_rm</t>
+  </si>
+  <si>
+    <t>As lawmakers, we have a duty to uphold the law, and we must demand change on behalf of the 54,000 new mothers a year who lose their job. As  the hon Member for Glasgow Central    outlined, for too long women have been treated unfairly or discriminated against in the workplace. Too many women feel that having a baby and taking their lawful maternity leave will threaten their job, lead to trouble in the workplace, harm their promotion prospects or, potentially, end their working careers. Unfortunately, we have heard many factual examples of why people feel that way. Pregnant women are told by their midwives to avoid stress for the safety and wellbeing of their unborn baby, but how is it possible for an expectant mum to avoid stress if she faces daily discrimination in the workplace?</t>
+  </si>
+  <si>
+    <t>I thank the Minister and other colleagues who have taken part in these exchanges. I content myself simply with the observation that they have been a very important treatment of a very important subject. Perhaps, on behalf of the House, I can express the hope that the Hansard text of these exchanges will be supplied to Southern Health NHS Foundation Trust. It needs to know that we have treated of it and what has been said - politely and with notable restraint, but with very real anxiety - in all parts of the House about the situation within its aegis.</t>
+  </si>
+  <si>
+    <t>I know from my time as a trade union official, and from my time on the working party on bullying and sexual misconduct procedures here, that these agreements are used to see that commercially sensitive information is not shared with external parties, but they are also used around failures of management, and bullying would be one such example. If the culture is wrong, it is not right to put money into it, and the management should be held to account. My hon Friend said that 270-plus non-disclosure agreements have been signed, so we need to ensure that there is proper scrutiny and transparency. New clause 5 addresses that issue very comprehensively, ensuring that commercial sensitivities are not undermined, and also that all of us can have a real grasp of what is happening in the culture of HS2. It is a sensible way of addressing the serious amount of money that is being spent on these agreements.</t>
+  </si>
+  <si>
+    <t>In a terrible time for democratic politics, this would be a glimmer of hope - a shaft of light - to show that this House can contribute to finding a solution to the most difficult political problem that this country has faced for decades. I hope that today and over the coming days the House and the Government can rise to the gravity of that problem.</t>
+  </si>
+  <si>
+    <t>I was sad to see the demise of the Scottish ladies' football team last night, when they snatched defeat from the jaws of victory late in the game after taking a 3-0 lead. I was reminded that it has been only 41 years since Ally MacLeod and his tartan army ventured forth to Buenos Aires and sadly came back undone. The Backbench Business Committee had a dozen applications for estimates day debates, and the business for those days has now been determined as relating to the spending of the Department for Work and Pensions, the Ministry of Housing, Communities and Local Government, the Department for International Development and the Department for Education. Will the Leader of the House confirm the dates for those debates?</t>
+  </si>
+  <si>
+    <t>What started as a celebration turned into a scene of carnage - a graveyard and the murder of innocents. On that fateful day in the Punjab, the rights to freedom of expression, assembly, and religion or belief, to name but a few, were violated in one of the most violent ways imaginable. Peaceful protestors, Sikh celebrants of the major religious festival of Baisakhi, and indeed many Muslims, were cut down that day for exercising their human rights as they should.</t>
+  </si>
+  <si>
+    <t>That is why we are helping schools to tackle budget pressures, including through buying schemes for energy, insurance, computers and so on. We are also helping schools to balance their budgets when it comes to deploying staff. Tackling workload will be an important part of easing the cost pressures on schools.</t>
+  </si>
+  <si>
+    <t>They will be able to take a short bus ride. Will women have to apply for funding, as agreed by this Parliament, to travel into the Republic of Ireland? Will the reciprocal healthcare rights apply to terminations? Do they apply as part of the European Union? Do they apply under the spirit of, and the rules that govern, the Good Friday/Belfast agreement?</t>
+  </si>
+  <si>
+    <t>Delaying at their composition is not clever. It is not my job to do the Whips' work for them, but all that they will do if they delay is to build up ill will, and that would be profoundly misconceived. My simple message, in a non-partisan spirit on behalf of Back Benchers in all parts of the House, is: for goodness' sake, stop faffing around and get on with it.</t>
+  </si>
+  <si>
+    <t>I have had the privilege of having discussions not only with my hon Friend the Member for Ealing, North but with the Minister and the Secretary of State - who is very sympathetic to and supportive of the Bill. They agreed that they would re-examine that matter, and I look forward with interest to their comments today, because, to reiterate, thousands of people across the country have suffered for far too long. We have campaigned and achieved this excellent Bill, but it is still one step away from being a really great Bill that will solve the problems. It is a good Bill, but it needs improvement.</t>
+  </si>
+  <si>
+    <t>In the letter which the hon Gentleman published this morning, with the hon Member for Antrim, North  , the hon Gentleman claimed that I had  given the Prime Minister of a foreign and alien power joint jurisdiction   over part of Her Majesty's dominions". That is what the hon Gentleman wrote this morning. He was utterly and totally wrong about that. I have done no such thing, as the joint declaration makes unambiguously clear.</t>
+  </si>
+  <si>
+    <t>If the tree is erected, it will become the focal point of a number of demonstrations. Those demonstrations will, of course, be peaceful, as those of us who love and believe in the rights of co-existence of all living creatures believe in peaceful demonstrations. I hope that the House and the Leader of the House will join me once again in utterly condemning the actions of the Norwegians.</t>
+  </si>
+  <si>
+    <t>I can think of no time when they will need that resource more than in the first 28 weeks; to deny them it during that period is the worst thing that the Government could do. For those and many other reasons, I hope that, even at this late stage, the Minister will recognise the strength of the arguments in both the new clause and the amendment, and consider our points sympathetically.</t>
+  </si>
+  <si>
+    <t>Time and again I hear, especially from the elderly, that the village bobby has gone and that they do not know to whom to turn. I do not wish to scaremonger, but even in   a village such as Betws-y-coed in my constituency, the elderly are saying that it is risky to go out after dark. I remember that village when there was never any risk, despite the fact that it was on a main trunk road - the A5. There is much that can be done, and the Government should he doing it, to make the elderly in society more comfortable. I want to see free or reduced cost travel on public transport for the elderly and I want it to be extended. Like many hon Members, I have often been lobbied on the subject of television licences.</t>
+  </si>
+  <si>
+    <t>Secondly, they refer to the shipment of arms to the IRA. It is a grim thought that, however successful the authorities may be in the north and the south of Ireland in finding arms caches, there are enough arms available to the IRA to last well into the next century, and perhaps to the year 2020. Therefore, people regard Colonel Gaddafi, if not the Libyan people, with a jaundiced eye. The Lockerbie explosion was a disgrace. My right hon and learned Friend the Minister of State described it as the worst civilian massacre in Europe since the end of the second world war, or words to that effect.</t>
+  </si>
+  <si>
+    <t>People in Kent are not just apprehensive; they are also looking for opportunities that the railway might bring for jobs and new industries. That is why I wish Blue Circle Industries godspeed with its Kent Thameside project to tie in its landholdings with a potential international station. It has the strong support of Gravesham and Dartford borough councils, and its plans complement the exciting proposals that the Government introduced for the east Thames corridor. hon Members will understand that we of north-west Kent are all under great pressure and are vulnerable to potentially great changes. It will be reassuring for local people to know that the House and the Government understand their anxieties and are sympathetic to their proposals.</t>
+  </si>
+  <si>
+    <t>The behaviour of Harold Shipman was extraordinary and far outside what, happily, we have expected during our lives. It was so utterly inconsistent with what we rightly expect, and get, from GPs that the ordinary disciplinary controls of the GMC would not have been appropriate. That is one of the issues that Dame Janet will consider. I should be surprised if the GMC - under almost any structure - would necessarily have found and stopped Harold Shipman. I should be interested to see what opinion the judge comes to on that. I endorse what the Minister and my hon Friend the Member for Woodspring   have said: Dr.</t>
+  </si>
+  <si>
+    <t>The assembly should either be located in Cathays park, where it can be serviced conveniently - city hall is our preferred option - or leave Cardiff altogether. I am amazed at the narrow, selfish, blinkered view of Cardiff council, which is a disgrace to Wales. I remind Cardiff's civic leaders of an old Welsh proverb:  A fo ben, bid bont",  which means, "He who wishes to be the leader must also be the facilitator. " If Cardiff wishes to enjoy the benefits of being the capital city of Wales, it must take its responsibilities towards Wales seriously. If it does not, so be it: plenty of other places are willing not only to house the assembly, but to serve Wales as her administrative capital.</t>
+  </si>
+  <si>
+    <t>If that is so, does not that indicate that Foreign and Commonwealth Office officials are wholly out of control? Is that not an utterly unacceptable state of affairs? Can the Foreign Secretary give us some assurance now of the action he will take if what must be the case, on the   basis of the account he has given this afternoon, is ultimately proved to be so by the independent inquiry that he has assured us he will set up?</t>
+  </si>
+  <si>
+    <t>The Government should be sympathetic and exempt from council tax the people who live in caravans or other mobile homes temporarily while they are out of their houses. The Minister might be aware from previous conversations and from representations that have been made to him - either directly or indirectly - of the severe impact that the floods are having on businesses in the town. Even multinational companies such as Safeway are yet to reopen. That company is not short of money and could pull a shop off the peg, but it remains shut. If Safeway cannot reopen, what hope is there for small individual businesses? The Government need to help such people.</t>
+  </si>
+  <si>
+    <t>I am sorry that the hon Gentleman has become so tired and cynical in opposition that he cannot accept words at their face value. The United States Administration have set out their position very clearly, as did the new US President at Camp David. Like their predecessors, they want European defence to develop in a way that strengthens NATO, and so do we. The Prime Minister agreed with the United States President on that at Camp David.</t>
+  </si>
+  <si>
+    <t>I pay tribute to the hon Member for Tooting   for the detailed and dedicated work that he has described. My constituents are much more sympathetic to his cause than to the cause of banning beef on the bone, about which they are deeply outraged. I pay tribute to many people in my constituency for their enormous effort in promoting plans to create a new community hospital in Farnham for the 21st century. For some years, there has been deep uncertainty and unhappiness about Farnham hospital's appropriate role. As in many parts of the country, in my area there has   been major investment in district general hospitals, in Guildford and Frimley.</t>
+  </si>
+  <si>
+    <t>It may have been at the back of the minds of all candidates at the 1997 general election that the Willis challenge would have to be dealt with during this Parliament. However, I do not believe that anyone felt that a Labour Government would deprive women in order to pay for men. I doubt that there was a single person who put their cross on the ballot paper in May 1997 who seriously believed that that would happen. Perhaps two people - the Prime Minister and the Chancellor - knew that it was going to happen. If I, or any of my right hon or hon Friends, had suggested at the election that women would have to suffer to pay for men's bereavement payments, we would have been accused of scaremongering.</t>
+  </si>
+  <si>
+    <t>The hon Lady is right. There is undeniably huge complexity. The goal posts do seem to change; the criteria seem to change. In part, that causes a problem because of the difficulties to which she refers - those of keeping up with the need to change the nature of the applications. In part, I fear, the criteria have been altered precisely to push money towards the inner cities. Although I utterly recognise the claim of the inner cities to public funds, I do not believe that measures that effectively exclude many village hall applications are justified.</t>
+  </si>
+  <si>
+    <t>Instead, the Act introduced a two-year duty, requiring local authorities to provide only hostel or other temporary accommodation. That was a disgraceful move and was universally condemned by homelessness charities and all of those working in the housing and homelessness sector. Inevitably, those measures led to an increase in the numbers of the homeless and the use of bed-and-breakfast accommodation. We are still reaping the whirlwind of that legacy of the previous Tory Government.</t>
+  </si>
+  <si>
+    <t>I want to join my hon Friend  the Member for Upminster    in challenging the underlying presumption behind the Bill, which seems to be something like this: it is terribly difficult, awkward and challenging to cast a vote in our democratic system, so we must help these poor voters, who find the whole thing overwhelmingly difficult, and make it much easier for them to vote. In my view, that is a patently absurd proposition. Our electoral system is tried and tested, and elegantly simple. Although the existing system is not foolproof, I suggest that if we are worried about personation or fraud within it, it should be relatively easy to deal with them.</t>
+  </si>
+  <si>
+    <t>However, we must also remember that, because the Chancellor of the Exchequer has made such a dreadful mess of the pensions system, older people often no longer have a choice about whether to work; many of them have to work because the pensions in which they have invested during the whole of their working lives have been plundered by the Chancellor's taking £5 billion per annum out of private pension schemes. Surely we therefore owe it to the older people in society who have been forced to work when they want to retire to ensure that they should not be discriminated against when they apply for jobs. Let us not forget that, while most of us can never change our race or ethnic origin and very few of us change our sex, we shall all change our age. It would be rather short-sighted not to look forward to the time when that happens. My hon Friend  the Member for Daventry    has been dedicated to promoting issues of disability, special needs education and equality for many years.</t>
+  </si>
+  <si>
+    <t>However, drawing together the threads, I was able to make these points in that debate: first, Sergeant Roberts had been issued with enhanced combat body armour - so-called ECBA - but it had been taken away from him; secondly, had he still been wearing ECBA, his life would have been saved; thirdly, according to the National Audit Office report on equipment supply failures, 200,000 items of ECBA "disappeared" between 1999 and 2003, resulting in shortages in theatre in Iraq; fourthly, in his confrontation with Iraqi dissidents, Sergeant Roberts' pistol seems to have misfired, but it was reissued and not checked after his death; finally, Sergeant Roberts's family had been given the clear impression immediately after his loss that the fatal shot was fired by a colleague seeking to defend him in a case of "friendly fire", which is an artificial and unhelpful phrase. We all know only too well that terrible mistakes can occur in the confusion of war. Troops know that they risk injury and even death in any hostilities, but that is not the issue. What is in question is whether the Ministry fulfils even its most basic responsibilities to those who serve their country in the armed forces and their families - months of inadequate information, inadequately communicated, is a pathetic response to that self-sacrifice.</t>
+  </si>
+  <si>
+    <t>It was put out to provide an experimental look at the issues - and it is correct that we should monitor expenditure programmes that involve huge sums. I agree that we should get value for money and ensure that we are achieving the targets on which our money is being spent. Let me just point out a few aspects of the ONS report to which  the hon Member for Havant    and the shadow Chancellor referred. The measurements used in the report are "new" and "experimental" - that suddenly seems to have become the holy gospel - and they use a measure of output which is absurd. The hon Member for Havant mentioned measuring outputs instead of inputs, so he will agree with that.</t>
   </si>
 </sst>
 </file>
@@ -451,9 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397BF419-C2CC-524A-BA39-C300A758BFC0}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -537,6 +626,238 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
